--- a/P4/Traceability Link Matrix.xlsx
+++ b/P4/Traceability Link Matrix.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carson\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE7B3AC-070F-43F3-BF26-3AD51AE0EF72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -148,42 +157,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Times New Roman"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +211,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,122 +227,421 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.57"/>
-    <col customWidth="1" min="2" max="2" width="14.86"/>
-    <col customWidth="1" min="3" max="3" width="19.14"/>
-    <col customWidth="1" min="4" max="6" width="16.43"/>
-    <col customWidth="1" min="7" max="7" width="20.71"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="9" width="27.86"/>
-    <col customWidth="1" min="10" max="10" width="18.86"/>
-    <col customWidth="1" min="11" max="11" width="24.0"/>
-    <col customWidth="1" min="12" max="12" width="18.86"/>
-    <col customWidth="1" min="13" max="13" width="23.86"/>
-    <col customWidth="1" min="14" max="14" width="18.86"/>
-    <col customWidth="1" min="15" max="15" width="22.14"/>
-    <col customWidth="1" min="16" max="18" width="18.86"/>
-    <col customWidth="1" min="19" max="19" width="10.57"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:41">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -405,7 +724,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:41">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -458,7 +777,7 @@
       <c r="AN2" s="9"/>
       <c r="AO2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:41">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -505,7 +824,7 @@
       <c r="AN3" s="9"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:41">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -560,7 +879,7 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:41">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -613,7 +932,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:41">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -668,7 +987,7 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:41">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -719,7 +1038,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:41">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -774,7 +1093,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:41">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -833,7 +1152,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:41">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -892,7 +1211,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:41">
       <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
@@ -945,7 +1264,7 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:41">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -998,7 +1317,7 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:41">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1366,7 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:41">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1413,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:41">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1460,7 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:41">
       <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
@@ -1196,58 +1515,21 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:41" s="21" customFormat="1">
+      <c r="A17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="18"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-    </row>
-    <row r="18">
+      <c r="R17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" s="12" t="s">
         <v>41</v>
       </c>
@@ -1298,30 +1580,30 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
+    <row r="19" spans="1:41">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8"/>
@@ -1341,8 +1623,8 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:41" ht="15.75" customHeight="1">
+      <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
       <c r="X20" s="8"/>
@@ -1364,9 +1646,9 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="1:41" ht="15.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
       <c r="X21" s="8"/>
@@ -1388,7 +1670,7 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:41" ht="15.75" customHeight="1">
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -1408,7 +1690,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:41" ht="15.75" customHeight="1">
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -1428,7 +1710,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:41" ht="12.75">
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -1448,7 +1730,7 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:41" ht="12.75">
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -1468,7 +1750,7 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:41" ht="12.75">
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -1488,7 +1770,7 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:41" ht="12.75">
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -1508,7 +1790,7 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:41" ht="12.75">
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -1528,7 +1810,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:41" ht="12.75">
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -1548,7 +1830,7 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:41" ht="12.75">
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -1568,7 +1850,7 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:41" ht="12.75">
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -1588,7 +1870,7 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:41" ht="12.75">
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -1608,7 +1890,7 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="24:41" ht="12.75">
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -1628,7 +1910,7 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="24:41" ht="12.75">
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -1648,7 +1930,7 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="24:41" ht="12.75">
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -1669,9 +1951,8 @@
       <c r="AO35" s="9"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>